--- a/IMPORTANT/SUNIT.xlsx
+++ b/IMPORTANT/SUNIT.xlsx
@@ -1079,7 +1079,7 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1686,7 +1686,8 @@
         <v>9</v>
       </c>
       <c r="E38" s="33">
-        <v>3</v>
+        <f>B36-G36</f>
+        <v>45558</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SUNIT.xlsx
+++ b/IMPORTANT/SUNIT.xlsx
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1166,11 +1166,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1178,15 +1178,19 @@
       <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44809</v>
+      </c>
+      <c r="G6" s="8">
+        <v>20944</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1198,11 +1202,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1218,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1234,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1250,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1266,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,11 +1282,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1294,11 +1298,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1314,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1330,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1346,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1362,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1378,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1394,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1410,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1426,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1442,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1458,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1474,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1490,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1506,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1522,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1538,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1554,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1570,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1586,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1602,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,11 +1618,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1635,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44799</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1664,7 +1668,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>44442</v>
+        <v>65386</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1687,7 +1691,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>45558</v>
+        <v>24614</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SUNIT.xlsx
+++ b/IMPORTANT/SUNIT.xlsx
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44810</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/SUNIT.xlsx
+++ b/IMPORTANT/SUNIT.xlsx
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/SUNIT.xlsx
+++ b/IMPORTANT/SUNIT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME -  SUNIT</t>
-  </si>
-  <si>
-    <t>TRANSFER</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="A5" sqref="A5:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1148,29 +1145,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44770</v>
-      </c>
-      <c r="B5" s="8">
-        <v>90000</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7">
-        <v>44786</v>
-      </c>
-      <c r="G5" s="8">
-        <v>44442</v>
-      </c>
+      <c r="D5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>68</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1178,19 +1165,15 @@
       <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44809</v>
-      </c>
-      <c r="G6" s="8">
-        <v>20944</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1202,11 +1185,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,11 +1201,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,11 +1217,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,11 +1233,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,11 +1249,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,11 +1265,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1298,11 +1281,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1297,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1313,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1329,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1345,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1361,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1377,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1393,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1409,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1425,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1441,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1457,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1473,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1489,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1505,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1521,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1537,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1553,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1569,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1585,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1601,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,11 +1618,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1660,7 +1643,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1668,7 +1651,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>65386</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1691,7 +1674,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SUNIT.xlsx
+++ b/IMPORTANT/SUNIT.xlsx
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44846</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/SUNIT.xlsx
+++ b/IMPORTANT/SUNIT.xlsx
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/SUNIT.xlsx
+++ b/IMPORTANT/SUNIT.xlsx
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
